--- a/app/tmp/excels/final_template.xlsx
+++ b/app/tmp/excels/final_template.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takano yohei\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="180" windowWidth="10635" windowHeight="9255"/>
   </bookViews>
@@ -17,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">社内用!$A$2:$AH$217</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="194">
   <si>
     <t>Date</t>
   </si>
@@ -712,91 +707,87 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
+    <t>Vendor List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Drop Time &amp; Place</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Other Request</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Other Request</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Menu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wedding　Item</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPL Personal INFO.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vihicular Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Delivery Place</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Other Request(RW)</t>
+  </si>
+  <si>
+    <t>Flower Content / Flower Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Real Weddings</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>813-3746-0004</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>8190-3811-7583</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Operation</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Toshi Saegusa</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>808-799-4186</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>toshi@realweddings.jp</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
     <t>kumi-iekura@empress.co.jp</t>
     <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Seiko Otsuki</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>seiko-otsuki@realweddings.jp</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Vendor List</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Drop Time &amp; Place</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Other Request</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Other Request</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Menu</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Wedding　Item</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CPL Personal INFO.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Operation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Real Weddings</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Kazuhiro Maruko</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kazumaru@realwedding.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>808-381-6279</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vihicular Type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Delivery Place</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> -</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Other Request(RW)</t>
-  </si>
-  <si>
-    <t>Flower Content / Flower Type</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -927,7 +918,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1218,28 +1209,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1258,7 +1227,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1748,18 +1717,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1862,6 +1819,72 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1871,14 +1894,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1892,12 +1909,6 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1906,57 +1917,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2229,7 +2189,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2237,16 +2197,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2258,7 +2208,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2300,7 +2250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2335,7 +2285,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2546,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO136" sqref="AO136"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AT40" sqref="AT40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2594,15 +2544,15 @@
       <c r="AH1" s="120"/>
     </row>
     <row r="2" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="224" t="s">
+      <c r="A2" s="206" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
       <c r="AF2" s="162"/>
       <c r="AH2" s="13"/>
     </row>
@@ -2725,15 +2675,15 @@
       <c r="AH5" s="7"/>
     </row>
     <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="224" t="s">
+      <c r="A6" s="206" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="224"/>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
+      <c r="B6" s="206"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
       <c r="AF6" s="162"/>
     </row>
     <row r="7" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2790,7 +2740,7 @@
       <c r="A8" s="25"/>
       <c r="B8" s="96"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="179"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
@@ -2861,15 +2811,15 @@
       <c r="AG9" s="3"/>
     </row>
     <row r="10" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="224" t="s">
+      <c r="A10" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="224"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
+      <c r="B10" s="206"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="206"/>
+      <c r="E10" s="206"/>
+      <c r="F10" s="206"/>
+      <c r="G10" s="206"/>
       <c r="AF10" s="162"/>
     </row>
     <row r="11" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2926,7 +2876,7 @@
       <c r="A12" s="25"/>
       <c r="B12" s="26"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="179"/>
+      <c r="D12" s="175"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
@@ -2998,15 +2948,15 @@
       <c r="AH13" s="3"/>
     </row>
     <row r="14" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="225" t="s">
-        <v>182</v>
-      </c>
-      <c r="B14" s="225"/>
-      <c r="C14" s="225"/>
-      <c r="D14" s="225"/>
-      <c r="E14" s="225"/>
-      <c r="F14" s="226"/>
-      <c r="G14" s="226"/>
+      <c r="A14" s="207" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="207"/>
+      <c r="C14" s="207"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="208"/>
+      <c r="G14" s="208"/>
       <c r="H14" s="51"/>
       <c r="AF14" s="162"/>
     </row>
@@ -3209,7 +3159,7 @@
       <c r="AH19" s="77"/>
     </row>
     <row r="20" spans="1:34" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="180"/>
+      <c r="A20" s="176"/>
       <c r="B20" s="99"/>
       <c r="C20" s="99"/>
       <c r="D20" s="99"/>
@@ -3281,15 +3231,15 @@
       <c r="AH21" s="4"/>
     </row>
     <row r="22" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="227" t="s">
+      <c r="A22" s="201" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="218"/>
-      <c r="C22" s="218"/>
-      <c r="D22" s="218"/>
-      <c r="E22" s="218"/>
-      <c r="F22" s="218"/>
-      <c r="G22" s="218"/>
+      <c r="B22" s="200"/>
+      <c r="C22" s="200"/>
+      <c r="D22" s="200"/>
+      <c r="E22" s="200"/>
+      <c r="F22" s="200"/>
+      <c r="G22" s="200"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="3"/>
@@ -3444,7 +3394,7 @@
     </row>
     <row r="26" spans="1:34" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="40"/>
-      <c r="B26" s="177"/>
+      <c r="B26" s="173"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -3465,7 +3415,7 @@
       <c r="T26" s="23"/>
       <c r="U26" s="23"/>
       <c r="V26" s="24"/>
-      <c r="W26" s="177"/>
+      <c r="W26" s="173"/>
       <c r="X26" s="69"/>
       <c r="Y26" s="69"/>
       <c r="Z26" s="23"/>
@@ -3517,7 +3467,7 @@
       <c r="AH27" s="21"/>
     </row>
     <row r="28" spans="1:34" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="180"/>
+      <c r="A28" s="176"/>
       <c r="B28" s="99"/>
       <c r="C28" s="99"/>
       <c r="D28" s="99"/>
@@ -3581,15 +3531,15 @@
       <c r="AH29" s="7"/>
     </row>
     <row r="30" spans="1:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="228" t="s">
-        <v>176</v>
-      </c>
-      <c r="B30" s="229"/>
-      <c r="C30" s="229"/>
-      <c r="D30" s="229"/>
-      <c r="E30" s="229"/>
-      <c r="F30" s="229"/>
-      <c r="G30" s="229"/>
+      <c r="A30" s="202" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="203"/>
+      <c r="C30" s="203"/>
+      <c r="D30" s="203"/>
+      <c r="E30" s="203"/>
+      <c r="F30" s="203"/>
+      <c r="G30" s="203"/>
       <c r="H30" s="3"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -3666,19 +3616,19 @@
       <c r="M32" s="110"/>
       <c r="N32" s="110"/>
       <c r="O32" s="109" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P32" s="110"/>
       <c r="Q32" s="110"/>
       <c r="R32" s="110"/>
       <c r="S32" s="109" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="T32" s="110"/>
       <c r="U32" s="110"/>
       <c r="V32" s="110"/>
-      <c r="W32" s="109" t="s">
-        <v>173</v>
+      <c r="W32" s="198" t="s">
+        <v>193</v>
       </c>
       <c r="X32" s="110"/>
       <c r="Y32" s="110"/>
@@ -3707,9 +3657,7 @@
       <c r="H33" s="110"/>
       <c r="I33" s="110"/>
       <c r="J33" s="110"/>
-      <c r="K33" s="109" t="s">
-        <v>174</v>
-      </c>
+      <c r="K33" s="109"/>
       <c r="L33" s="110"/>
       <c r="M33" s="110"/>
       <c r="N33" s="110"/>
@@ -3725,9 +3673,7 @@
       <c r="T33" s="110"/>
       <c r="U33" s="110"/>
       <c r="V33" s="110"/>
-      <c r="W33" s="109" t="s">
-        <v>175</v>
-      </c>
+      <c r="W33" s="109"/>
       <c r="X33" s="110"/>
       <c r="Y33" s="110"/>
       <c r="Z33" s="110"/>
@@ -3741,52 +3687,50 @@
       <c r="AH33" s="111"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A34" s="163" t="s">
-        <v>183</v>
-      </c>
-      <c r="B34" s="122"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="164" t="s">
-        <v>184</v>
-      </c>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="122"/>
-      <c r="K34" s="164" t="s">
-        <v>185</v>
-      </c>
-      <c r="L34" s="122"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="122"/>
-      <c r="O34" s="164" t="s">
+      <c r="A34" s="113" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="110"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="109" t="s">
         <v>186</v>
       </c>
-      <c r="P34" s="122"/>
-      <c r="Q34" s="122"/>
-      <c r="R34" s="122"/>
-      <c r="S34" s="164" t="s">
-        <v>188</v>
-      </c>
-      <c r="T34" s="122"/>
-      <c r="U34" s="122"/>
-      <c r="V34" s="122"/>
-      <c r="W34" s="166" t="s">
-        <v>187</v>
-      </c>
-      <c r="X34" s="122"/>
-      <c r="Y34" s="122"/>
-      <c r="Z34" s="122"/>
-      <c r="AA34" s="122"/>
-      <c r="AB34" s="122"/>
-      <c r="AC34" s="122"/>
-      <c r="AD34" s="122"/>
-      <c r="AE34" s="122"/>
-      <c r="AF34" s="122"/>
-      <c r="AG34" s="122"/>
-      <c r="AH34" s="165"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="109" t="s">
+        <v>190</v>
+      </c>
+      <c r="L34" s="110"/>
+      <c r="M34" s="110"/>
+      <c r="N34" s="110"/>
+      <c r="O34" s="109"/>
+      <c r="P34" s="110"/>
+      <c r="Q34" s="110"/>
+      <c r="R34" s="110"/>
+      <c r="S34" s="109" t="s">
+        <v>191</v>
+      </c>
+      <c r="T34" s="110"/>
+      <c r="U34" s="110"/>
+      <c r="V34" s="110"/>
+      <c r="W34" s="198" t="s">
+        <v>192</v>
+      </c>
+      <c r="X34" s="110"/>
+      <c r="Y34" s="110"/>
+      <c r="Z34" s="110"/>
+      <c r="AA34" s="110"/>
+      <c r="AB34" s="110"/>
+      <c r="AC34" s="110"/>
+      <c r="AD34" s="110"/>
+      <c r="AE34" s="110"/>
+      <c r="AF34" s="110"/>
+      <c r="AG34" s="110"/>
+      <c r="AH34" s="111"/>
     </row>
     <row r="35" spans="1:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="114"/>
@@ -3883,10 +3827,10 @@
       <c r="AH37" s="36"/>
     </row>
     <row r="38" spans="1:34" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="172" t="s">
+      <c r="A38" s="168" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="171"/>
+      <c r="B38" s="167"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3903,7 +3847,7 @@
       <c r="U38" s="105"/>
       <c r="V38" s="105"/>
       <c r="W38" s="105"/>
-      <c r="X38" s="181"/>
+      <c r="X38" s="177"/>
       <c r="Y38" s="105"/>
       <c r="Z38" s="105"/>
       <c r="AA38" s="105"/>
@@ -3935,7 +3879,7 @@
       <c r="K39" s="35"/>
       <c r="L39" s="70"/>
       <c r="M39" s="34" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="N39" s="35"/>
       <c r="O39" s="35"/>
@@ -3962,16 +3906,16 @@
     <row r="40" spans="1:34" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="33"/>
       <c r="B40" s="101"/>
-      <c r="C40" s="175"/>
-      <c r="D40" s="176"/>
-      <c r="E40" s="173"/>
-      <c r="F40" s="174"/>
-      <c r="G40" s="175"/>
+      <c r="C40" s="171"/>
+      <c r="D40" s="172"/>
+      <c r="E40" s="169"/>
+      <c r="F40" s="170"/>
+      <c r="G40" s="171"/>
       <c r="H40" s="126"/>
       <c r="I40" s="53"/>
       <c r="J40" s="54"/>
       <c r="K40" s="54"/>
-      <c r="M40" s="182"/>
+      <c r="M40" s="178"/>
       <c r="N40" s="101"/>
       <c r="O40" s="101"/>
       <c r="P40" s="101"/>
@@ -4040,14 +3984,14 @@
       <c r="A42" s="102">
         <v>1</v>
       </c>
-      <c r="B42" s="183"/>
+      <c r="B42" s="179"/>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
       <c r="H42" s="29"/>
-      <c r="I42" s="180"/>
+      <c r="I42" s="176"/>
       <c r="J42" s="99"/>
       <c r="K42" s="99"/>
       <c r="L42" s="99"/>
@@ -4124,20 +4068,20 @@
       <c r="A44" s="102">
         <v>1</v>
       </c>
-      <c r="B44" s="213"/>
-      <c r="C44" s="214"/>
-      <c r="D44" s="215"/>
-      <c r="E44" s="184"/>
+      <c r="B44" s="227"/>
+      <c r="C44" s="228"/>
+      <c r="D44" s="229"/>
+      <c r="E44" s="180"/>
       <c r="F44" s="101"/>
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
       <c r="K44" s="126"/>
-      <c r="L44" s="207"/>
-      <c r="M44" s="208"/>
-      <c r="N44" s="209"/>
-      <c r="O44" s="184"/>
+      <c r="L44" s="223"/>
+      <c r="M44" s="224"/>
+      <c r="N44" s="225"/>
+      <c r="O44" s="180"/>
       <c r="P44" s="29"/>
       <c r="Q44" s="29"/>
       <c r="R44" s="29"/>
@@ -4145,12 +4089,12 @@
       <c r="T44" s="29"/>
       <c r="U44" s="23"/>
       <c r="V44" s="24"/>
-      <c r="W44" s="185"/>
+      <c r="W44" s="181"/>
       <c r="X44" s="99"/>
       <c r="Y44" s="99"/>
       <c r="Z44" s="99"/>
       <c r="AA44" s="99"/>
-      <c r="AB44" s="180"/>
+      <c r="AB44" s="176"/>
       <c r="AC44" s="99"/>
       <c r="AD44" s="99"/>
       <c r="AE44" s="99"/>
@@ -4190,16 +4134,16 @@
       <c r="AH45" s="10"/>
     </row>
     <row r="46" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="217" t="s">
+      <c r="A46" s="204" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="217"/>
-      <c r="C46" s="217"/>
-      <c r="D46" s="217"/>
-      <c r="E46" s="217"/>
-      <c r="F46" s="217"/>
-      <c r="G46" s="217"/>
-      <c r="H46" s="217"/>
+      <c r="B46" s="204"/>
+      <c r="C46" s="204"/>
+      <c r="D46" s="204"/>
+      <c r="E46" s="204"/>
+      <c r="F46" s="204"/>
+      <c r="G46" s="204"/>
+      <c r="H46" s="204"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="3"/>
@@ -4252,7 +4196,7 @@
       <c r="AH47" s="36"/>
     </row>
     <row r="48" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="186"/>
+      <c r="A48" s="182"/>
       <c r="B48" s="59"/>
       <c r="C48" s="59"/>
       <c r="D48" s="59"/>
@@ -4354,18 +4298,18 @@
       <c r="T50" s="41"/>
       <c r="U50" s="40"/>
       <c r="V50" s="42"/>
-      <c r="W50" s="220"/>
-      <c r="X50" s="221"/>
-      <c r="Y50" s="221"/>
-      <c r="Z50" s="221"/>
-      <c r="AA50" s="221"/>
-      <c r="AB50" s="221"/>
-      <c r="AC50" s="221"/>
-      <c r="AD50" s="221"/>
-      <c r="AE50" s="221"/>
-      <c r="AF50" s="221"/>
-      <c r="AG50" s="221"/>
-      <c r="AH50" s="222"/>
+      <c r="W50" s="212"/>
+      <c r="X50" s="213"/>
+      <c r="Y50" s="213"/>
+      <c r="Z50" s="213"/>
+      <c r="AA50" s="213"/>
+      <c r="AB50" s="213"/>
+      <c r="AC50" s="213"/>
+      <c r="AD50" s="213"/>
+      <c r="AE50" s="213"/>
+      <c r="AF50" s="213"/>
+      <c r="AG50" s="213"/>
+      <c r="AH50" s="214"/>
     </row>
     <row r="51" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="34" t="s">
@@ -4423,7 +4367,7 @@
       <c r="M52" s="69"/>
       <c r="N52" s="41"/>
       <c r="O52" s="41"/>
-      <c r="P52" s="177"/>
+      <c r="P52" s="173"/>
       <c r="Q52" s="69"/>
       <c r="R52" s="23"/>
       <c r="S52" s="41"/>
@@ -4496,7 +4440,7 @@
       <c r="D54" s="35"/>
       <c r="E54" s="36"/>
       <c r="F54" s="17" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G54" s="33"/>
       <c r="H54" s="29"/>
@@ -4514,7 +4458,7 @@
       <c r="T54" s="22"/>
       <c r="U54" s="23"/>
       <c r="V54" s="23"/>
-      <c r="W54" s="177"/>
+      <c r="W54" s="173"/>
       <c r="X54" s="23"/>
       <c r="Y54" s="23"/>
       <c r="Z54" s="23"/>
@@ -4580,7 +4524,7 @@
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
       <c r="F56" s="17" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G56" s="33"/>
       <c r="H56" s="29"/>
@@ -4598,7 +4542,7 @@
       <c r="T56" s="22"/>
       <c r="U56" s="23"/>
       <c r="V56" s="23"/>
-      <c r="W56" s="177"/>
+      <c r="W56" s="173"/>
       <c r="X56" s="23"/>
       <c r="Y56" s="23"/>
       <c r="Z56" s="23"/>
@@ -4664,7 +4608,7 @@
       <c r="D58" s="35"/>
       <c r="E58" s="36"/>
       <c r="F58" s="17" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G58" s="33"/>
       <c r="H58" s="29"/>
@@ -4682,7 +4626,7 @@
       <c r="T58" s="22"/>
       <c r="U58" s="23"/>
       <c r="V58" s="23"/>
-      <c r="W58" s="177"/>
+      <c r="W58" s="173"/>
       <c r="X58" s="23"/>
       <c r="Y58" s="23"/>
       <c r="Z58" s="23"/>
@@ -4748,7 +4692,7 @@
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
       <c r="F60" s="17" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G60" s="33"/>
       <c r="H60" s="29"/>
@@ -4766,7 +4710,7 @@
       <c r="T60" s="22"/>
       <c r="U60" s="23"/>
       <c r="V60" s="23"/>
-      <c r="W60" s="177"/>
+      <c r="W60" s="173"/>
       <c r="X60" s="23"/>
       <c r="Y60" s="23"/>
       <c r="Z60" s="23"/>
@@ -4832,9 +4776,9 @@
       <c r="D62" s="35"/>
       <c r="E62" s="36"/>
       <c r="F62" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="G62" s="187"/>
+        <v>183</v>
+      </c>
+      <c r="G62" s="183"/>
       <c r="H62" s="29"/>
       <c r="I62" s="29"/>
       <c r="J62" s="29"/>
@@ -4850,7 +4794,7 @@
       <c r="T62" s="22"/>
       <c r="U62" s="23"/>
       <c r="V62" s="23"/>
-      <c r="W62" s="177"/>
+      <c r="W62" s="173"/>
       <c r="X62" s="23"/>
       <c r="Y62" s="23"/>
       <c r="Z62" s="23"/>
@@ -4902,7 +4846,7 @@
       <c r="AH63" s="36"/>
     </row>
     <row r="64" spans="1:34" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="180"/>
+      <c r="A64" s="176"/>
       <c r="B64" s="99"/>
       <c r="C64" s="99"/>
       <c r="D64" s="99"/>
@@ -4974,15 +4918,15 @@
       <c r="AH65" s="4"/>
     </row>
     <row r="66" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="223" t="s">
+      <c r="A66" s="215" t="s">
         <v>107</v>
       </c>
-      <c r="B66" s="223"/>
-      <c r="C66" s="223"/>
-      <c r="D66" s="223"/>
-      <c r="E66" s="223"/>
-      <c r="F66" s="223"/>
-      <c r="G66" s="223"/>
+      <c r="B66" s="215"/>
+      <c r="C66" s="215"/>
+      <c r="D66" s="215"/>
+      <c r="E66" s="215"/>
+      <c r="F66" s="215"/>
+      <c r="G66" s="215"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -5011,7 +4955,7 @@
     </row>
     <row r="67" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="91" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B67" s="35"/>
       <c r="C67" s="35"/>
@@ -5056,14 +5000,14 @@
       <c r="AH67" s="36"/>
     </row>
     <row r="68" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="188"/>
+      <c r="A68" s="184"/>
       <c r="B68" s="23"/>
       <c r="C68" s="23"/>
       <c r="D68" s="69"/>
       <c r="E68" s="23"/>
       <c r="F68" s="23"/>
-      <c r="G68" s="179"/>
-      <c r="H68" s="170"/>
+      <c r="G68" s="175"/>
+      <c r="H68" s="166"/>
       <c r="I68" s="84"/>
       <c r="J68" s="84"/>
       <c r="K68" s="84"/>
@@ -5074,13 +5018,13 @@
       <c r="P68" s="25"/>
       <c r="Q68" s="23"/>
       <c r="R68" s="23"/>
-      <c r="S68" s="177"/>
+      <c r="S68" s="173"/>
       <c r="T68" s="23"/>
       <c r="V68" s="41"/>
       <c r="W68" s="41"/>
       <c r="X68" s="56"/>
       <c r="Y68" s="23"/>
-      <c r="AA68" s="177"/>
+      <c r="AA68" s="173"/>
       <c r="AB68" s="23"/>
       <c r="AC68" s="23"/>
       <c r="AD68" s="23"/>
@@ -5157,25 +5101,25 @@
       <c r="M70" s="40"/>
       <c r="N70" s="41"/>
       <c r="O70" s="42"/>
-      <c r="P70" s="219"/>
-      <c r="Q70" s="211"/>
-      <c r="R70" s="211"/>
-      <c r="S70" s="211"/>
-      <c r="T70" s="211"/>
-      <c r="U70" s="211"/>
-      <c r="V70" s="211"/>
-      <c r="W70" s="211"/>
-      <c r="X70" s="211"/>
-      <c r="Y70" s="211"/>
-      <c r="Z70" s="211"/>
-      <c r="AA70" s="211"/>
-      <c r="AB70" s="211"/>
-      <c r="AC70" s="211"/>
-      <c r="AD70" s="211"/>
-      <c r="AE70" s="211"/>
-      <c r="AF70" s="211"/>
-      <c r="AG70" s="211"/>
-      <c r="AH70" s="212"/>
+      <c r="P70" s="209"/>
+      <c r="Q70" s="210"/>
+      <c r="R70" s="210"/>
+      <c r="S70" s="210"/>
+      <c r="T70" s="210"/>
+      <c r="U70" s="210"/>
+      <c r="V70" s="210"/>
+      <c r="W70" s="210"/>
+      <c r="X70" s="210"/>
+      <c r="Y70" s="210"/>
+      <c r="Z70" s="210"/>
+      <c r="AA70" s="210"/>
+      <c r="AB70" s="210"/>
+      <c r="AC70" s="210"/>
+      <c r="AD70" s="210"/>
+      <c r="AE70" s="210"/>
+      <c r="AF70" s="210"/>
+      <c r="AG70" s="210"/>
+      <c r="AH70" s="211"/>
     </row>
     <row r="71" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="34" t="s">
@@ -5225,25 +5169,25 @@
       <c r="A72" s="22">
         <v>1</v>
       </c>
-      <c r="B72" s="210"/>
-      <c r="C72" s="211"/>
-      <c r="D72" s="212"/>
-      <c r="E72" s="187"/>
+      <c r="B72" s="226"/>
+      <c r="C72" s="210"/>
+      <c r="D72" s="211"/>
+      <c r="E72" s="183"/>
       <c r="F72" s="29"/>
       <c r="G72" s="38"/>
       <c r="H72" s="38"/>
       <c r="I72" s="38"/>
       <c r="J72" s="38"/>
-      <c r="K72" s="210"/>
-      <c r="L72" s="211"/>
-      <c r="M72" s="212"/>
-      <c r="N72" s="187"/>
+      <c r="K72" s="226"/>
+      <c r="L72" s="210"/>
+      <c r="M72" s="211"/>
+      <c r="N72" s="183"/>
       <c r="O72" s="61"/>
       <c r="P72" s="61"/>
       <c r="Q72" s="61"/>
       <c r="R72" s="61"/>
       <c r="S72" s="38"/>
-      <c r="T72" s="178"/>
+      <c r="T72" s="174"/>
       <c r="U72" s="69"/>
       <c r="V72" s="69"/>
       <c r="W72" s="69"/>
@@ -5296,16 +5240,16 @@
       <c r="AH73" s="7"/>
     </row>
     <row r="74" spans="1:34" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="217" t="s">
+      <c r="A74" s="204" t="s">
         <v>117</v>
       </c>
-      <c r="B74" s="217"/>
-      <c r="C74" s="217"/>
-      <c r="D74" s="217"/>
-      <c r="E74" s="217"/>
-      <c r="F74" s="217"/>
-      <c r="G74" s="217"/>
-      <c r="H74" s="217"/>
+      <c r="B74" s="204"/>
+      <c r="C74" s="204"/>
+      <c r="D74" s="204"/>
+      <c r="E74" s="204"/>
+      <c r="F74" s="204"/>
+      <c r="G74" s="204"/>
+      <c r="H74" s="204"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="3"/>
@@ -5335,7 +5279,7 @@
     </row>
     <row r="75" spans="1:34" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="91" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B75" s="35"/>
       <c r="C75" s="35"/>
@@ -5380,13 +5324,13 @@
       <c r="AH75" s="150"/>
     </row>
     <row r="76" spans="1:34" s="13" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="188"/>
+      <c r="A76" s="184"/>
       <c r="B76" s="23"/>
       <c r="C76" s="23"/>
       <c r="D76" s="69"/>
       <c r="E76" s="23"/>
       <c r="F76" s="23"/>
-      <c r="G76" s="186"/>
+      <c r="G76" s="182"/>
       <c r="H76" s="59"/>
       <c r="I76" s="59"/>
       <c r="J76" s="59"/>
@@ -5403,7 +5347,7 @@
       <c r="U76" s="22"/>
       <c r="V76" s="23"/>
       <c r="W76" s="24"/>
-      <c r="X76" s="180"/>
+      <c r="X76" s="176"/>
       <c r="Y76" s="99"/>
       <c r="Z76" s="99"/>
       <c r="AA76" s="99"/>
@@ -5411,8 +5355,8 @@
       <c r="AC76" s="100"/>
       <c r="AD76" s="99"/>
       <c r="AE76" s="99"/>
-      <c r="AF76" s="167"/>
-      <c r="AH76" s="168"/>
+      <c r="AF76" s="163"/>
+      <c r="AH76" s="164"/>
     </row>
     <row r="77" spans="1:34" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="34" t="s">
@@ -5445,7 +5389,7 @@
       <c r="T77" s="37"/>
       <c r="U77" s="37"/>
       <c r="V77" s="34" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="W77" s="34"/>
       <c r="X77" s="36"/>
@@ -5463,13 +5407,13 @@
       <c r="AH77" s="45"/>
     </row>
     <row r="78" spans="1:34" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="204">
+      <c r="A78" s="216">
         <v>1</v>
       </c>
       <c r="B78" s="26"/>
       <c r="C78" s="23"/>
       <c r="D78" s="24"/>
-      <c r="E78" s="187"/>
+      <c r="E78" s="183"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
@@ -5489,7 +5433,7 @@
       <c r="V78" s="25"/>
       <c r="W78" s="23"/>
       <c r="X78" s="24"/>
-      <c r="Y78" s="187"/>
+      <c r="Y78" s="183"/>
       <c r="Z78" s="29"/>
       <c r="AA78" s="29"/>
       <c r="AB78" s="29"/>
@@ -5501,7 +5445,7 @@
       <c r="AH78" s="24"/>
     </row>
     <row r="79" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="205"/>
+      <c r="A79" s="217"/>
       <c r="B79" s="35" t="s">
         <v>18</v>
       </c>
@@ -5539,8 +5483,8 @@
       <c r="AH79" s="36"/>
     </row>
     <row r="80" spans="1:34" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="206"/>
-      <c r="B80" s="189"/>
+      <c r="A80" s="218"/>
+      <c r="B80" s="185"/>
       <c r="C80" s="99"/>
       <c r="D80" s="99"/>
       <c r="E80" s="99"/>
@@ -5651,7 +5595,7 @@
       <c r="U83" s="105"/>
       <c r="V83" s="105"/>
       <c r="W83" s="105"/>
-      <c r="X83" s="181"/>
+      <c r="X83" s="177"/>
       <c r="Y83" s="105"/>
       <c r="Z83" s="105"/>
       <c r="AA83" s="105"/>
@@ -5709,14 +5653,14 @@
       <c r="A85" s="131">
         <v>1</v>
       </c>
-      <c r="B85" s="190"/>
+      <c r="B85" s="186"/>
       <c r="C85" s="132"/>
       <c r="D85" s="132"/>
       <c r="E85" s="132"/>
       <c r="F85" s="132"/>
       <c r="G85" s="132"/>
       <c r="H85" s="132"/>
-      <c r="I85" s="191"/>
+      <c r="I85" s="187"/>
       <c r="J85" s="133"/>
       <c r="K85" s="133"/>
       <c r="L85" s="133"/>
@@ -5791,7 +5735,7 @@
       <c r="A87" s="33"/>
       <c r="B87" s="101"/>
       <c r="C87" s="30"/>
-      <c r="D87" s="184"/>
+      <c r="D87" s="180"/>
       <c r="E87" s="29"/>
       <c r="F87" s="29"/>
       <c r="G87" s="29"/>
@@ -5800,7 +5744,7 @@
       <c r="J87" s="33"/>
       <c r="K87" s="101"/>
       <c r="L87" s="30"/>
-      <c r="M87" s="184"/>
+      <c r="M87" s="180"/>
       <c r="N87" s="29"/>
       <c r="O87" s="29"/>
       <c r="P87" s="29"/>
@@ -5809,7 +5753,7 @@
       <c r="S87" s="22"/>
       <c r="T87" s="23"/>
       <c r="U87" s="101"/>
-      <c r="V87" s="192"/>
+      <c r="V87" s="188"/>
       <c r="W87" s="23"/>
       <c r="X87" s="101"/>
       <c r="Y87" s="101"/>
@@ -5872,7 +5816,7 @@
       <c r="B89" s="85"/>
       <c r="C89" s="29"/>
       <c r="D89" s="101"/>
-      <c r="E89" s="184"/>
+      <c r="E89" s="180"/>
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
       <c r="H89" s="29"/>
@@ -5880,7 +5824,7 @@
       <c r="J89" s="29"/>
       <c r="K89" s="29"/>
       <c r="L89" s="101"/>
-      <c r="M89" s="177"/>
+      <c r="M89" s="173"/>
       <c r="N89" s="29"/>
       <c r="O89" s="29"/>
       <c r="P89" s="29"/>
@@ -5919,15 +5863,15 @@
       <c r="M90" s="7"/>
     </row>
     <row r="91" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="227" t="s">
+      <c r="A91" s="201" t="s">
         <v>60</v>
       </c>
-      <c r="B91" s="218"/>
-      <c r="C91" s="218"/>
-      <c r="D91" s="218"/>
-      <c r="E91" s="218"/>
-      <c r="F91" s="218"/>
-      <c r="G91" s="218"/>
+      <c r="B91" s="200"/>
+      <c r="C91" s="200"/>
+      <c r="D91" s="200"/>
+      <c r="E91" s="200"/>
+      <c r="F91" s="200"/>
+      <c r="G91" s="200"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -6000,14 +5944,14 @@
       <c r="A93" s="137">
         <v>1</v>
       </c>
-      <c r="B93" s="190"/>
+      <c r="B93" s="186"/>
       <c r="C93" s="132"/>
       <c r="D93" s="132"/>
       <c r="E93" s="132"/>
       <c r="F93" s="132"/>
       <c r="G93" s="132"/>
       <c r="H93" s="132"/>
-      <c r="I93" s="191"/>
+      <c r="I93" s="187"/>
       <c r="J93" s="133"/>
       <c r="K93" s="133"/>
       <c r="L93" s="133"/>
@@ -6073,7 +6017,7 @@
       <c r="Y94" s="35"/>
       <c r="Z94" s="35"/>
       <c r="AA94" s="34" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AB94" s="35"/>
       <c r="AC94" s="35"/>
@@ -6090,13 +6034,13 @@
       <c r="D95" s="33"/>
       <c r="E95" s="101"/>
       <c r="F95" s="30"/>
-      <c r="G95" s="184"/>
+      <c r="G95" s="180"/>
       <c r="H95" s="29"/>
       <c r="I95" s="29"/>
       <c r="J95" s="29"/>
       <c r="K95" s="29"/>
       <c r="L95" s="29"/>
-      <c r="M95" s="194"/>
+      <c r="M95" s="190"/>
       <c r="N95" s="29"/>
       <c r="O95" s="29"/>
       <c r="P95" s="29"/>
@@ -6104,13 +6048,13 @@
       <c r="R95" s="29"/>
       <c r="S95" s="29"/>
       <c r="T95" s="29"/>
-      <c r="U95" s="177"/>
+      <c r="U95" s="173"/>
       <c r="V95" s="23"/>
       <c r="W95" s="23"/>
       <c r="X95" s="23"/>
       <c r="Y95" s="23"/>
       <c r="Z95" s="23"/>
-      <c r="AA95" s="193"/>
+      <c r="AA95" s="189"/>
       <c r="AB95" s="99"/>
       <c r="AC95" s="99"/>
       <c r="AD95" s="99"/>
@@ -6123,15 +6067,15 @@
       <c r="A96" s="15"/>
     </row>
     <row r="97" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="227" t="s">
+      <c r="A97" s="201" t="s">
         <v>68</v>
       </c>
-      <c r="B97" s="218"/>
-      <c r="C97" s="218"/>
-      <c r="D97" s="218"/>
-      <c r="E97" s="218"/>
-      <c r="F97" s="218"/>
-      <c r="G97" s="218"/>
+      <c r="B97" s="200"/>
+      <c r="C97" s="200"/>
+      <c r="D97" s="200"/>
+      <c r="E97" s="200"/>
+      <c r="F97" s="200"/>
+      <c r="G97" s="200"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -6190,7 +6134,7 @@
       <c r="T98" s="35"/>
       <c r="U98" s="138"/>
       <c r="V98" s="35" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="W98" s="35"/>
       <c r="X98" s="35"/>
@@ -6216,7 +6160,7 @@
       <c r="F99" s="22"/>
       <c r="G99" s="23"/>
       <c r="H99" s="24"/>
-      <c r="I99" s="184"/>
+      <c r="I99" s="180"/>
       <c r="J99" s="41"/>
       <c r="K99" s="41"/>
       <c r="L99" s="69"/>
@@ -6231,7 +6175,7 @@
       <c r="S99" s="41"/>
       <c r="T99" s="41"/>
       <c r="U99" s="69"/>
-      <c r="V99" s="195" t="s">
+      <c r="V99" s="191" t="s">
         <v>15</v>
       </c>
       <c r="W99" s="49"/>
@@ -6293,7 +6237,7 @@
       <c r="A101" s="22">
         <v>1</v>
       </c>
-      <c r="B101" s="179"/>
+      <c r="B101" s="175"/>
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
       <c r="E101" s="23"/>
@@ -6308,7 +6252,7 @@
       <c r="N101" s="23"/>
       <c r="O101" s="23"/>
       <c r="P101" s="23"/>
-      <c r="Q101" s="177"/>
+      <c r="Q101" s="173"/>
       <c r="R101" s="101"/>
       <c r="S101" s="23"/>
       <c r="T101" s="23"/>
@@ -6377,7 +6321,7 @@
       <c r="C103" s="23"/>
       <c r="D103" s="23"/>
       <c r="E103" s="30"/>
-      <c r="F103" s="195"/>
+      <c r="F103" s="191"/>
       <c r="G103" s="41"/>
       <c r="H103" s="41"/>
       <c r="I103" s="41"/>
@@ -6388,7 +6332,7 @@
       <c r="N103" s="41"/>
       <c r="O103" s="41"/>
       <c r="P103" s="41"/>
-      <c r="Q103" s="177"/>
+      <c r="Q103" s="173"/>
       <c r="R103" s="69"/>
       <c r="S103" s="41"/>
       <c r="T103" s="41"/>
@@ -6446,7 +6390,7 @@
       <c r="AH104" s="36"/>
     </row>
     <row r="105" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="180"/>
+      <c r="A105" s="176"/>
       <c r="B105" s="99"/>
       <c r="C105" s="99"/>
       <c r="D105" s="99"/>
@@ -6518,15 +6462,15 @@
       <c r="AH106" s="4"/>
     </row>
     <row r="107" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="231" t="s">
+      <c r="A107" s="205" t="s">
         <v>108</v>
       </c>
-      <c r="B107" s="218"/>
-      <c r="C107" s="218"/>
-      <c r="D107" s="218"/>
-      <c r="E107" s="218"/>
-      <c r="F107" s="218"/>
-      <c r="G107" s="218"/>
+      <c r="B107" s="200"/>
+      <c r="C107" s="200"/>
+      <c r="D107" s="200"/>
+      <c r="E107" s="200"/>
+      <c r="F107" s="200"/>
+      <c r="G107" s="200"/>
       <c r="H107" s="3"/>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -6576,7 +6520,7 @@
       <c r="AH108" s="36"/>
     </row>
     <row r="109" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="179"/>
+      <c r="A109" s="175"/>
       <c r="B109" s="23"/>
       <c r="C109" s="23"/>
       <c r="D109" s="23"/>
@@ -6592,7 +6536,7 @@
       <c r="N109" s="23"/>
       <c r="O109" s="23"/>
       <c r="P109" s="29"/>
-      <c r="Q109" s="177"/>
+      <c r="Q109" s="173"/>
       <c r="R109" s="29"/>
       <c r="S109" s="69"/>
       <c r="T109" s="69"/>
@@ -6650,7 +6594,7 @@
       <c r="AH110" s="36"/>
     </row>
     <row r="111" spans="1:34" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="180"/>
+      <c r="A111" s="176"/>
       <c r="B111" s="99"/>
       <c r="C111" s="99"/>
       <c r="D111" s="99"/>
@@ -6699,15 +6643,15 @@
       <c r="K112" s="2"/>
     </row>
     <row r="113" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="227" t="s">
+      <c r="A113" s="201" t="s">
         <v>20</v>
       </c>
-      <c r="B113" s="218"/>
-      <c r="C113" s="218"/>
-      <c r="D113" s="218"/>
-      <c r="E113" s="218"/>
-      <c r="F113" s="218"/>
-      <c r="G113" s="218"/>
+      <c r="B113" s="200"/>
+      <c r="C113" s="200"/>
+      <c r="D113" s="200"/>
+      <c r="E113" s="200"/>
+      <c r="F113" s="200"/>
+      <c r="G113" s="200"/>
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -6766,7 +6710,7 @@
       <c r="T114" s="35"/>
       <c r="U114" s="138"/>
       <c r="V114" s="35" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="W114" s="35"/>
       <c r="X114" s="35"/>
@@ -6792,7 +6736,7 @@
       <c r="F115" s="22"/>
       <c r="G115" s="23"/>
       <c r="H115" s="24"/>
-      <c r="I115" s="184"/>
+      <c r="I115" s="180"/>
       <c r="J115" s="41"/>
       <c r="K115" s="41"/>
       <c r="L115" s="69"/>
@@ -6807,7 +6751,7 @@
       <c r="S115" s="41"/>
       <c r="T115" s="41"/>
       <c r="U115" s="69"/>
-      <c r="V115" s="195" t="s">
+      <c r="V115" s="191" t="s">
         <v>15</v>
       </c>
       <c r="W115" s="49"/>
@@ -6869,7 +6813,7 @@
       <c r="A117" s="22">
         <v>1</v>
       </c>
-      <c r="B117" s="179"/>
+      <c r="B117" s="175"/>
       <c r="C117" s="23"/>
       <c r="D117" s="23"/>
       <c r="E117" s="23"/>
@@ -6884,7 +6828,7 @@
       <c r="N117" s="23"/>
       <c r="O117" s="23"/>
       <c r="P117" s="23"/>
-      <c r="Q117" s="177"/>
+      <c r="Q117" s="173"/>
       <c r="R117" s="23"/>
       <c r="S117" s="23"/>
       <c r="T117" s="23"/>
@@ -6953,7 +6897,7 @@
       <c r="C119" s="23"/>
       <c r="D119" s="23"/>
       <c r="E119" s="30"/>
-      <c r="F119" s="195"/>
+      <c r="F119" s="191"/>
       <c r="G119" s="41"/>
       <c r="H119" s="41"/>
       <c r="I119" s="41"/>
@@ -6964,7 +6908,7 @@
       <c r="N119" s="41"/>
       <c r="O119" s="41"/>
       <c r="P119" s="41"/>
-      <c r="Q119" s="177"/>
+      <c r="Q119" s="173"/>
       <c r="R119" s="41"/>
       <c r="S119" s="41"/>
       <c r="T119" s="41"/>
@@ -7022,7 +6966,7 @@
       <c r="AH120" s="36"/>
     </row>
     <row r="121" spans="1:34" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="180"/>
+      <c r="A121" s="176"/>
       <c r="B121" s="99"/>
       <c r="C121" s="99"/>
       <c r="D121" s="99"/>
@@ -7071,15 +7015,15 @@
       <c r="K122" s="2"/>
     </row>
     <row r="123" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="227" t="s">
+      <c r="A123" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="B123" s="218"/>
-      <c r="C123" s="218"/>
-      <c r="D123" s="218"/>
-      <c r="E123" s="218"/>
-      <c r="F123" s="218"/>
-      <c r="G123" s="218"/>
+      <c r="B123" s="200"/>
+      <c r="C123" s="200"/>
+      <c r="D123" s="200"/>
+      <c r="E123" s="200"/>
+      <c r="F123" s="200"/>
+      <c r="G123" s="200"/>
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -7150,7 +7094,7 @@
       <c r="AH124" s="36"/>
     </row>
     <row r="125" spans="1:34" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="177"/>
+      <c r="A125" s="173"/>
       <c r="B125" s="23"/>
       <c r="C125" s="23"/>
       <c r="D125" s="23"/>
@@ -7162,7 +7106,7 @@
       <c r="J125" s="66"/>
       <c r="K125" s="66"/>
       <c r="L125" s="67"/>
-      <c r="M125" s="177"/>
+      <c r="M125" s="173"/>
       <c r="N125" s="23"/>
       <c r="O125" s="23"/>
       <c r="P125" s="23"/>
@@ -7170,7 +7114,7 @@
       <c r="R125" s="23"/>
       <c r="S125" s="23"/>
       <c r="T125" s="23"/>
-      <c r="U125" s="177"/>
+      <c r="U125" s="173"/>
       <c r="V125" s="23"/>
       <c r="W125" s="23"/>
       <c r="X125" s="23"/>
@@ -7187,7 +7131,7 @@
     </row>
     <row r="126" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="34" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B126" s="35"/>
       <c r="C126" s="35"/>
@@ -7214,7 +7158,7 @@
       <c r="V126" s="35"/>
       <c r="W126" s="36"/>
       <c r="X126" s="34" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Y126" s="35"/>
       <c r="Z126" s="35"/>
@@ -7228,7 +7172,7 @@
       <c r="AH126" s="36"/>
     </row>
     <row r="127" spans="1:34" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="179"/>
+      <c r="A127" s="175"/>
       <c r="B127" s="23"/>
       <c r="C127" s="23"/>
       <c r="D127" s="23"/>
@@ -7236,7 +7180,7 @@
       <c r="F127" s="23"/>
       <c r="G127" s="23"/>
       <c r="H127" s="23"/>
-      <c r="I127" s="232"/>
+      <c r="I127" s="197"/>
       <c r="J127" s="23"/>
       <c r="K127" s="23"/>
       <c r="L127" s="23"/>
@@ -7248,10 +7192,10 @@
       <c r="R127" s="23"/>
       <c r="S127" s="23"/>
       <c r="T127" s="23"/>
-      <c r="U127" s="169"/>
+      <c r="U127" s="165"/>
       <c r="V127" s="23"/>
       <c r="W127" s="24"/>
-      <c r="X127" s="177"/>
+      <c r="X127" s="173"/>
       <c r="Y127" s="23"/>
       <c r="Z127" s="23"/>
       <c r="AA127" s="23"/>
@@ -7306,7 +7250,7 @@
       <c r="AH128" s="36"/>
     </row>
     <row r="129" spans="1:34" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="177"/>
+      <c r="A129" s="173"/>
       <c r="B129" s="23"/>
       <c r="C129" s="23"/>
       <c r="D129" s="23"/>
@@ -7318,7 +7262,7 @@
       <c r="J129" s="66"/>
       <c r="K129" s="66"/>
       <c r="L129" s="67"/>
-      <c r="M129" s="177"/>
+      <c r="M129" s="173"/>
       <c r="N129" s="23"/>
       <c r="O129" s="23"/>
       <c r="P129" s="23"/>
@@ -7326,7 +7270,7 @@
       <c r="R129" s="23"/>
       <c r="S129" s="23"/>
       <c r="T129" s="23"/>
-      <c r="U129" s="177"/>
+      <c r="U129" s="173"/>
       <c r="V129" s="23"/>
       <c r="W129" s="23"/>
       <c r="X129" s="23"/>
@@ -7343,7 +7287,7 @@
     </row>
     <row r="130" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="34" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B130" s="35"/>
       <c r="C130" s="35"/>
@@ -7370,7 +7314,7 @@
       <c r="V130" s="35"/>
       <c r="W130" s="36"/>
       <c r="X130" s="34" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Y130" s="35"/>
       <c r="Z130" s="35"/>
@@ -7384,7 +7328,7 @@
       <c r="AH130" s="36"/>
     </row>
     <row r="131" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="179"/>
+      <c r="A131" s="175"/>
       <c r="B131" s="23"/>
       <c r="C131" s="23"/>
       <c r="D131" s="23"/>
@@ -7392,7 +7336,7 @@
       <c r="F131" s="23"/>
       <c r="G131" s="23"/>
       <c r="H131" s="23"/>
-      <c r="I131" s="232"/>
+      <c r="I131" s="197"/>
       <c r="J131" s="23"/>
       <c r="K131" s="23"/>
       <c r="L131" s="23"/>
@@ -7404,10 +7348,10 @@
       <c r="R131" s="23"/>
       <c r="S131" s="23"/>
       <c r="T131" s="23"/>
-      <c r="U131" s="169"/>
+      <c r="U131" s="165"/>
       <c r="V131" s="23"/>
       <c r="W131" s="24"/>
-      <c r="X131" s="177"/>
+      <c r="X131" s="173"/>
       <c r="Y131" s="23"/>
       <c r="Z131" s="23"/>
       <c r="AA131" s="23"/>
@@ -7462,7 +7406,7 @@
       <c r="AH132" s="36"/>
     </row>
     <row r="133" spans="1:34" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="177"/>
+      <c r="A133" s="173"/>
       <c r="B133" s="23"/>
       <c r="C133" s="23"/>
       <c r="D133" s="23"/>
@@ -7474,7 +7418,7 @@
       <c r="J133" s="66"/>
       <c r="K133" s="66"/>
       <c r="L133" s="67"/>
-      <c r="M133" s="177"/>
+      <c r="M133" s="173"/>
       <c r="N133" s="23"/>
       <c r="O133" s="23"/>
       <c r="P133" s="23"/>
@@ -7482,7 +7426,7 @@
       <c r="R133" s="23"/>
       <c r="S133" s="23"/>
       <c r="T133" s="23"/>
-      <c r="U133" s="177"/>
+      <c r="U133" s="173"/>
       <c r="V133" s="23"/>
       <c r="W133" s="23"/>
       <c r="X133" s="23"/>
@@ -7499,7 +7443,7 @@
     </row>
     <row r="134" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="34" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B134" s="35"/>
       <c r="C134" s="35"/>
@@ -7526,7 +7470,7 @@
       <c r="V134" s="35"/>
       <c r="W134" s="36"/>
       <c r="X134" s="34" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Y134" s="35"/>
       <c r="Z134" s="35"/>
@@ -7540,7 +7484,7 @@
       <c r="AH134" s="36"/>
     </row>
     <row r="135" spans="1:34" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="179"/>
+      <c r="A135" s="175"/>
       <c r="B135" s="23"/>
       <c r="C135" s="23"/>
       <c r="D135" s="23"/>
@@ -7548,7 +7492,7 @@
       <c r="F135" s="23"/>
       <c r="G135" s="23"/>
       <c r="H135" s="23"/>
-      <c r="I135" s="232"/>
+      <c r="I135" s="197"/>
       <c r="J135" s="23"/>
       <c r="K135" s="23"/>
       <c r="L135" s="23"/>
@@ -7560,10 +7504,10 @@
       <c r="R135" s="23"/>
       <c r="S135" s="23"/>
       <c r="T135" s="23"/>
-      <c r="U135" s="169"/>
+      <c r="U135" s="165"/>
       <c r="V135" s="23"/>
       <c r="W135" s="24"/>
-      <c r="X135" s="177"/>
+      <c r="X135" s="173"/>
       <c r="Y135" s="23"/>
       <c r="Z135" s="23"/>
       <c r="AA135" s="23"/>
@@ -7589,15 +7533,15 @@
       <c r="K136" s="2"/>
     </row>
     <row r="137" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="227" t="s">
+      <c r="A137" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="B137" s="218"/>
-      <c r="C137" s="218"/>
-      <c r="D137" s="218"/>
-      <c r="E137" s="218"/>
-      <c r="F137" s="218"/>
-      <c r="G137" s="218"/>
+      <c r="B137" s="200"/>
+      <c r="C137" s="200"/>
+      <c r="D137" s="200"/>
+      <c r="E137" s="200"/>
+      <c r="F137" s="200"/>
+      <c r="G137" s="200"/>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="3"/>
@@ -7662,7 +7606,7 @@
       <c r="AH138" s="36"/>
     </row>
     <row r="139" spans="1:34" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="195"/>
+      <c r="A139" s="191"/>
       <c r="B139" s="38"/>
       <c r="C139" s="38"/>
       <c r="D139" s="38"/>
@@ -7670,7 +7614,7 @@
       <c r="F139" s="147"/>
       <c r="G139" s="146"/>
       <c r="H139" s="146"/>
-      <c r="I139" s="196"/>
+      <c r="I139" s="192"/>
       <c r="J139" s="54"/>
       <c r="K139" s="148"/>
       <c r="L139" s="148"/>
@@ -7678,7 +7622,7 @@
       <c r="N139" s="148"/>
       <c r="O139" s="146"/>
       <c r="P139" s="146"/>
-      <c r="Q139" s="196"/>
+      <c r="Q139" s="192"/>
       <c r="R139" s="148"/>
       <c r="S139" s="148"/>
       <c r="T139" s="148"/>
@@ -7686,7 +7630,7 @@
       <c r="V139" s="148"/>
       <c r="W139" s="146"/>
       <c r="X139" s="146"/>
-      <c r="Y139" s="196"/>
+      <c r="Y139" s="192"/>
       <c r="Z139" s="54"/>
       <c r="AA139" s="148"/>
       <c r="AB139" s="148"/>
@@ -7724,18 +7668,18 @@
       </c>
       <c r="Q140" s="35"/>
       <c r="R140" s="36"/>
-      <c r="S140" s="201" t="s">
+      <c r="S140" s="219" t="s">
         <v>74</v>
       </c>
-      <c r="T140" s="202"/>
-      <c r="U140" s="202"/>
-      <c r="V140" s="203"/>
-      <c r="W140" s="201" t="s">
+      <c r="T140" s="220"/>
+      <c r="U140" s="220"/>
+      <c r="V140" s="221"/>
+      <c r="W140" s="219" t="s">
         <v>76</v>
       </c>
-      <c r="X140" s="202"/>
-      <c r="Y140" s="202"/>
-      <c r="Z140" s="203"/>
+      <c r="X140" s="220"/>
+      <c r="Y140" s="220"/>
+      <c r="Z140" s="221"/>
       <c r="AA140" s="34" t="s">
         <v>155</v>
       </c>
@@ -7750,50 +7694,50 @@
       <c r="AH140" s="36"/>
     </row>
     <row r="141" spans="1:34" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="195"/>
+      <c r="A141" s="191"/>
       <c r="B141" s="41"/>
       <c r="C141" s="41"/>
       <c r="D141" s="41"/>
       <c r="E141" s="41"/>
       <c r="F141" s="42"/>
-      <c r="G141" s="195"/>
+      <c r="G141" s="191"/>
       <c r="H141" s="41"/>
       <c r="I141" s="41"/>
       <c r="J141" s="41"/>
       <c r="K141" s="41"/>
       <c r="L141" s="41"/>
-      <c r="M141" s="195"/>
+      <c r="M141" s="191"/>
       <c r="N141" s="41"/>
       <c r="O141" s="42"/>
-      <c r="P141" s="195"/>
+      <c r="P141" s="191"/>
       <c r="Q141" s="41"/>
       <c r="R141" s="42"/>
-      <c r="S141" s="195"/>
+      <c r="S141" s="191"/>
       <c r="T141" s="41"/>
       <c r="U141" s="41"/>
       <c r="V141" s="41"/>
-      <c r="W141" s="195"/>
+      <c r="W141" s="191"/>
       <c r="X141" s="41"/>
       <c r="Y141" s="41"/>
       <c r="Z141" s="42"/>
-      <c r="AA141" s="177"/>
+      <c r="AA141" s="173"/>
       <c r="AB141" s="23"/>
       <c r="AC141" s="23"/>
       <c r="AD141" s="23"/>
-      <c r="AE141" s="177"/>
+      <c r="AE141" s="173"/>
       <c r="AF141" s="23"/>
       <c r="AG141" s="23"/>
       <c r="AH141" s="24"/>
     </row>
     <row r="142" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="201" t="s">
+      <c r="A142" s="219" t="s">
         <v>132</v>
       </c>
-      <c r="B142" s="202"/>
-      <c r="C142" s="202"/>
-      <c r="D142" s="202"/>
-      <c r="E142" s="202"/>
-      <c r="F142" s="203"/>
+      <c r="B142" s="220"/>
+      <c r="C142" s="220"/>
+      <c r="D142" s="220"/>
+      <c r="E142" s="220"/>
+      <c r="F142" s="221"/>
       <c r="G142" s="34" t="s">
         <v>158</v>
       </c>
@@ -7836,28 +7780,28 @@
       <c r="AH142" s="36"/>
     </row>
     <row r="143" spans="1:34" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="195"/>
+      <c r="A143" s="191"/>
       <c r="B143" s="41"/>
       <c r="C143" s="41"/>
       <c r="D143" s="41"/>
       <c r="E143" s="41"/>
       <c r="F143" s="42"/>
-      <c r="G143" s="195"/>
+      <c r="G143" s="191"/>
       <c r="H143" s="41"/>
       <c r="I143" s="42"/>
-      <c r="J143" s="195"/>
+      <c r="J143" s="191"/>
       <c r="K143" s="41"/>
       <c r="L143" s="41"/>
-      <c r="M143" s="195"/>
+      <c r="M143" s="191"/>
       <c r="N143" s="41"/>
       <c r="O143" s="42"/>
-      <c r="P143" s="195"/>
+      <c r="P143" s="191"/>
       <c r="Q143" s="41"/>
       <c r="R143" s="42"/>
-      <c r="S143" s="195"/>
+      <c r="S143" s="191"/>
       <c r="T143" s="41"/>
       <c r="U143" s="42"/>
-      <c r="V143" s="195"/>
+      <c r="V143" s="191"/>
       <c r="W143" s="41"/>
       <c r="X143" s="41"/>
       <c r="Y143" s="41"/>
@@ -7914,7 +7858,7 @@
       <c r="AH144" s="36"/>
     </row>
     <row r="145" spans="1:34" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="179"/>
+      <c r="A145" s="175"/>
       <c r="B145" s="29"/>
       <c r="C145" s="29"/>
       <c r="D145" s="29"/>
@@ -7932,10 +7876,10 @@
       <c r="P145" s="29"/>
       <c r="Q145" s="29"/>
       <c r="R145" s="29"/>
-      <c r="S145" s="169"/>
+      <c r="S145" s="165"/>
       <c r="T145" s="23"/>
       <c r="U145" s="24"/>
-      <c r="V145" s="197"/>
+      <c r="V145" s="193"/>
       <c r="W145" s="101"/>
       <c r="X145" s="23"/>
       <c r="Y145" s="23"/>
@@ -7988,7 +7932,7 @@
       <c r="AH146" s="36"/>
     </row>
     <row r="147" spans="1:34" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="180"/>
+      <c r="A147" s="176"/>
       <c r="B147" s="99"/>
       <c r="C147" s="99"/>
       <c r="D147" s="99"/>
@@ -8060,17 +8004,17 @@
       <c r="AH148" s="2"/>
     </row>
     <row r="149" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="216" t="s">
+      <c r="A149" s="222" t="s">
         <v>109</v>
       </c>
-      <c r="B149" s="217"/>
-      <c r="C149" s="217"/>
-      <c r="D149" s="217"/>
-      <c r="E149" s="217"/>
-      <c r="F149" s="217"/>
-      <c r="G149" s="217"/>
-      <c r="H149" s="217"/>
-      <c r="I149" s="218"/>
+      <c r="B149" s="204"/>
+      <c r="C149" s="204"/>
+      <c r="D149" s="204"/>
+      <c r="E149" s="204"/>
+      <c r="F149" s="204"/>
+      <c r="G149" s="204"/>
+      <c r="H149" s="204"/>
+      <c r="I149" s="200"/>
       <c r="J149" s="9"/>
       <c r="K149" s="3"/>
       <c r="M149" s="3"/>
@@ -8078,7 +8022,7 @@
     </row>
     <row r="150" spans="1:34" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="91" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B150" s="35"/>
       <c r="C150" s="35"/>
@@ -8123,13 +8067,13 @@
       <c r="AH150" s="150"/>
     </row>
     <row r="151" spans="1:34" s="13" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="188"/>
+      <c r="A151" s="184"/>
       <c r="B151" s="23"/>
       <c r="C151" s="23"/>
       <c r="D151" s="69"/>
       <c r="E151" s="23"/>
       <c r="F151" s="23"/>
-      <c r="G151" s="186"/>
+      <c r="G151" s="182"/>
       <c r="H151" s="59"/>
       <c r="I151" s="59"/>
       <c r="J151" s="59"/>
@@ -8146,7 +8090,7 @@
       <c r="U151" s="22"/>
       <c r="V151" s="23"/>
       <c r="W151" s="24"/>
-      <c r="X151" s="180"/>
+      <c r="X151" s="176"/>
       <c r="Y151" s="99"/>
       <c r="Z151" s="99"/>
       <c r="AA151" s="99"/>
@@ -8154,8 +8098,8 @@
       <c r="AC151" s="100"/>
       <c r="AD151" s="99"/>
       <c r="AE151" s="99"/>
-      <c r="AF151" s="167"/>
-      <c r="AH151" s="168"/>
+      <c r="AF151" s="163"/>
+      <c r="AH151" s="164"/>
     </row>
     <row r="152" spans="1:34" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="34" t="s">
@@ -8188,7 +8132,7 @@
       <c r="T152" s="37"/>
       <c r="U152" s="37"/>
       <c r="V152" s="34" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="W152" s="34"/>
       <c r="X152" s="36"/>
@@ -8206,13 +8150,13 @@
       <c r="AH152" s="45"/>
     </row>
     <row r="153" spans="1:34" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="204">
+      <c r="A153" s="216">
         <v>1</v>
       </c>
       <c r="B153" s="26"/>
       <c r="C153" s="23"/>
       <c r="D153" s="24"/>
-      <c r="E153" s="187"/>
+      <c r="E153" s="183"/>
       <c r="F153" s="29"/>
       <c r="G153" s="29"/>
       <c r="H153" s="29"/>
@@ -8232,7 +8176,7 @@
       <c r="V153" s="25"/>
       <c r="W153" s="23"/>
       <c r="X153" s="24"/>
-      <c r="Y153" s="187"/>
+      <c r="Y153" s="183"/>
       <c r="Z153" s="29"/>
       <c r="AA153" s="29"/>
       <c r="AB153" s="29"/>
@@ -8244,7 +8188,7 @@
       <c r="AH153" s="24"/>
     </row>
     <row r="154" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="205"/>
+      <c r="A154" s="217"/>
       <c r="B154" s="35" t="s">
         <v>18</v>
       </c>
@@ -8282,8 +8226,8 @@
       <c r="AH154" s="36"/>
     </row>
     <row r="155" spans="1:34" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="206"/>
-      <c r="B155" s="189"/>
+      <c r="A155" s="218"/>
+      <c r="B155" s="185"/>
       <c r="C155" s="99"/>
       <c r="D155" s="99"/>
       <c r="E155" s="99"/>
@@ -8354,15 +8298,15 @@
       <c r="AH156" s="3"/>
     </row>
     <row r="157" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="230" t="s">
+      <c r="A157" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="B157" s="218"/>
-      <c r="C157" s="218"/>
-      <c r="D157" s="218"/>
-      <c r="E157" s="218"/>
-      <c r="F157" s="218"/>
-      <c r="G157" s="218"/>
+      <c r="B157" s="200"/>
+      <c r="C157" s="200"/>
+      <c r="D157" s="200"/>
+      <c r="E157" s="200"/>
+      <c r="F157" s="200"/>
+      <c r="G157" s="200"/>
       <c r="H157" s="9"/>
       <c r="I157" s="9"/>
       <c r="J157" s="9"/>
@@ -8423,7 +8367,7 @@
       <c r="J159" s="152"/>
       <c r="K159" s="152"/>
       <c r="L159" s="153"/>
-      <c r="M159" s="198"/>
+      <c r="M159" s="194"/>
       <c r="N159" s="154"/>
       <c r="O159" s="154"/>
       <c r="P159" s="154"/>
@@ -8478,15 +8422,15 @@
       <c r="U160" s="47"/>
       <c r="V160" s="47"/>
       <c r="W160" s="47"/>
-      <c r="X160" s="201" t="s">
+      <c r="X160" s="219" t="s">
         <v>121</v>
       </c>
-      <c r="Y160" s="202"/>
-      <c r="Z160" s="202"/>
-      <c r="AA160" s="202"/>
-      <c r="AB160" s="202"/>
-      <c r="AC160" s="202"/>
-      <c r="AD160" s="202"/>
+      <c r="Y160" s="220"/>
+      <c r="Z160" s="220"/>
+      <c r="AA160" s="220"/>
+      <c r="AB160" s="220"/>
+      <c r="AC160" s="220"/>
+      <c r="AD160" s="220"/>
       <c r="AE160" s="34" t="s">
         <v>81</v>
       </c>
@@ -8495,7 +8439,7 @@
       <c r="AH160" s="36"/>
     </row>
     <row r="161" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="179"/>
+      <c r="A161" s="175"/>
       <c r="B161" s="29"/>
       <c r="C161" s="29"/>
       <c r="D161" s="29"/>
@@ -8511,44 +8455,44 @@
       <c r="N161" s="23"/>
       <c r="O161" s="23"/>
       <c r="P161" s="23"/>
-      <c r="Q161" s="177"/>
+      <c r="Q161" s="173"/>
       <c r="R161" s="23"/>
       <c r="S161" s="23"/>
       <c r="T161" s="23"/>
       <c r="U161" s="23"/>
       <c r="V161" s="23"/>
       <c r="W161" s="23"/>
-      <c r="X161" s="177"/>
+      <c r="X161" s="173"/>
       <c r="Y161" s="23"/>
       <c r="Z161" s="23"/>
       <c r="AA161" s="23"/>
       <c r="AB161" s="23"/>
       <c r="AC161" s="23"/>
       <c r="AD161" s="23"/>
-      <c r="AE161" s="184"/>
+      <c r="AE161" s="180"/>
       <c r="AF161" s="132"/>
       <c r="AG161" s="132"/>
       <c r="AH161" s="30"/>
     </row>
     <row r="162" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="201" t="s">
+      <c r="A162" s="219" t="s">
         <v>78</v>
       </c>
-      <c r="B162" s="202"/>
-      <c r="C162" s="202"/>
-      <c r="D162" s="203"/>
-      <c r="E162" s="201" t="s">
+      <c r="B162" s="220"/>
+      <c r="C162" s="220"/>
+      <c r="D162" s="221"/>
+      <c r="E162" s="219" t="s">
         <v>79</v>
       </c>
-      <c r="F162" s="202"/>
-      <c r="G162" s="202"/>
-      <c r="H162" s="203"/>
-      <c r="I162" s="201" t="s">
+      <c r="F162" s="220"/>
+      <c r="G162" s="220"/>
+      <c r="H162" s="221"/>
+      <c r="I162" s="219" t="s">
         <v>80</v>
       </c>
-      <c r="J162" s="202"/>
-      <c r="K162" s="202"/>
-      <c r="L162" s="203"/>
+      <c r="J162" s="220"/>
+      <c r="K162" s="220"/>
+      <c r="L162" s="221"/>
       <c r="M162" s="34" t="s">
         <v>138</v>
       </c>
@@ -8579,19 +8523,19 @@
       <c r="AH162" s="36"/>
     </row>
     <row r="163" spans="1:34" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="177"/>
+      <c r="A163" s="173"/>
       <c r="B163" s="23"/>
       <c r="C163" s="23"/>
       <c r="D163" s="23"/>
-      <c r="E163" s="177"/>
+      <c r="E163" s="173"/>
       <c r="F163" s="23"/>
       <c r="G163" s="23"/>
       <c r="H163" s="23"/>
-      <c r="I163" s="177"/>
+      <c r="I163" s="173"/>
       <c r="J163" s="23"/>
       <c r="K163" s="23"/>
       <c r="L163" s="23"/>
-      <c r="M163" s="177"/>
+      <c r="M163" s="173"/>
       <c r="N163" s="23"/>
       <c r="O163" s="23"/>
       <c r="P163" s="23"/>
@@ -8599,14 +8543,14 @@
       <c r="R163" s="23"/>
       <c r="S163" s="23"/>
       <c r="T163" s="23"/>
-      <c r="U163" s="177"/>
+      <c r="U163" s="173"/>
       <c r="V163" s="23"/>
       <c r="W163" s="23"/>
       <c r="X163" s="23"/>
       <c r="Y163" s="23"/>
       <c r="Z163" s="23"/>
       <c r="AA163" s="23"/>
-      <c r="AB163" s="177"/>
+      <c r="AB163" s="173"/>
       <c r="AC163" s="101"/>
       <c r="AD163" s="23"/>
       <c r="AE163" s="23"/>
@@ -8653,7 +8597,7 @@
       <c r="AH164" s="140"/>
     </row>
     <row r="165" spans="1:34" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="180"/>
+      <c r="A165" s="176"/>
       <c r="B165" s="99"/>
       <c r="C165" s="99"/>
       <c r="D165" s="99"/>
@@ -8689,15 +8633,15 @@
       <c r="AH165" s="95"/>
     </row>
     <row r="167" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="230" t="s">
+      <c r="A167" s="199" t="s">
         <v>84</v>
       </c>
-      <c r="B167" s="218"/>
-      <c r="C167" s="218"/>
-      <c r="D167" s="218"/>
-      <c r="E167" s="218"/>
-      <c r="F167" s="218"/>
-      <c r="G167" s="218"/>
+      <c r="B167" s="200"/>
+      <c r="C167" s="200"/>
+      <c r="D167" s="200"/>
+      <c r="E167" s="200"/>
+      <c r="F167" s="200"/>
+      <c r="G167" s="200"/>
       <c r="H167" s="9"/>
       <c r="I167" s="9"/>
       <c r="J167" s="9"/>
@@ -8716,7 +8660,7 @@
       <c r="G168" s="35"/>
       <c r="H168" s="35"/>
       <c r="I168" s="91" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J168" s="70"/>
       <c r="K168" s="70"/>
@@ -8755,7 +8699,7 @@
       <c r="AH168" s="36"/>
     </row>
     <row r="169" spans="1:34" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="179"/>
+      <c r="A169" s="175"/>
       <c r="B169" s="23"/>
       <c r="C169" s="23"/>
       <c r="D169" s="23"/>
@@ -8763,7 +8707,7 @@
       <c r="F169" s="23"/>
       <c r="G169" s="23"/>
       <c r="H169" s="23"/>
-      <c r="I169" s="188"/>
+      <c r="I169" s="184"/>
       <c r="M169" s="33"/>
       <c r="N169" s="101"/>
       <c r="O169" s="30"/>
@@ -8773,13 +8717,13 @@
       <c r="S169" s="22"/>
       <c r="T169" s="23"/>
       <c r="U169" s="23"/>
-      <c r="V169" s="177"/>
+      <c r="V169" s="173"/>
       <c r="W169" s="23"/>
       <c r="X169" s="23"/>
       <c r="Y169" s="23"/>
       <c r="Z169" s="23"/>
       <c r="AA169" s="23"/>
-      <c r="AB169" s="177"/>
+      <c r="AB169" s="173"/>
       <c r="AC169" s="101"/>
       <c r="AD169" s="23"/>
       <c r="AE169" s="23"/>
@@ -8826,7 +8770,7 @@
       <c r="AH170" s="36"/>
     </row>
     <row r="171" spans="1:34" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="180"/>
+      <c r="A171" s="176"/>
       <c r="B171" s="99"/>
       <c r="C171" s="99"/>
       <c r="D171" s="99"/>
@@ -8862,15 +8806,15 @@
       <c r="AH171" s="92"/>
     </row>
     <row r="173" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="230" t="s">
+      <c r="A173" s="199" t="s">
         <v>87</v>
       </c>
-      <c r="B173" s="218"/>
-      <c r="C173" s="218"/>
-      <c r="D173" s="218"/>
-      <c r="E173" s="218"/>
-      <c r="F173" s="218"/>
-      <c r="G173" s="218"/>
+      <c r="B173" s="200"/>
+      <c r="C173" s="200"/>
+      <c r="D173" s="200"/>
+      <c r="E173" s="200"/>
+      <c r="F173" s="200"/>
+      <c r="G173" s="200"/>
       <c r="H173" s="9"/>
       <c r="I173" s="9"/>
       <c r="J173" s="9"/>
@@ -8927,7 +8871,7 @@
       <c r="AH174" s="36"/>
     </row>
     <row r="175" spans="1:34" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="179"/>
+      <c r="A175" s="175"/>
       <c r="B175" s="23"/>
       <c r="C175" s="23"/>
       <c r="D175" s="23"/>
@@ -8944,7 +8888,7 @@
       <c r="O175" s="22"/>
       <c r="P175" s="23"/>
       <c r="Q175" s="23"/>
-      <c r="R175" s="177"/>
+      <c r="R175" s="173"/>
       <c r="S175" s="23"/>
       <c r="T175" s="23"/>
       <c r="U175" s="23"/>
@@ -8954,7 +8898,7 @@
       <c r="Y175" s="23"/>
       <c r="Z175" s="23"/>
       <c r="AA175" s="23"/>
-      <c r="AB175" s="177"/>
+      <c r="AB175" s="173"/>
       <c r="AC175" s="101"/>
       <c r="AD175" s="23"/>
       <c r="AE175" s="23"/>
@@ -9001,7 +8945,7 @@
       <c r="AH176" s="36"/>
     </row>
     <row r="177" spans="1:34" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="180"/>
+      <c r="A177" s="176"/>
       <c r="B177" s="99"/>
       <c r="C177" s="99"/>
       <c r="D177" s="99"/>
@@ -9037,15 +8981,15 @@
       <c r="AH177" s="92"/>
     </row>
     <row r="179" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="230" t="s">
+      <c r="A179" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="B179" s="218"/>
-      <c r="C179" s="218"/>
-      <c r="D179" s="218"/>
-      <c r="E179" s="218"/>
-      <c r="F179" s="218"/>
-      <c r="G179" s="218"/>
+      <c r="B179" s="200"/>
+      <c r="C179" s="200"/>
+      <c r="D179" s="200"/>
+      <c r="E179" s="200"/>
+      <c r="F179" s="200"/>
+      <c r="G179" s="200"/>
       <c r="H179" s="9"/>
       <c r="I179" s="9"/>
       <c r="J179" s="9"/>
@@ -9100,7 +9044,7 @@
       <c r="D181" s="23"/>
       <c r="E181" s="23"/>
       <c r="F181" s="30"/>
-      <c r="G181" s="195"/>
+      <c r="G181" s="191"/>
       <c r="H181" s="41"/>
       <c r="I181" s="41"/>
       <c r="J181" s="41"/>
@@ -9115,7 +9059,7 @@
       <c r="S181" s="41"/>
       <c r="T181" s="41"/>
       <c r="U181" s="42"/>
-      <c r="V181" s="195"/>
+      <c r="V181" s="191"/>
       <c r="W181" s="41"/>
       <c r="X181" s="41"/>
       <c r="Y181" s="41"/>
@@ -9131,7 +9075,7 @@
     </row>
     <row r="182" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="34" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B182" s="35"/>
       <c r="C182" s="35"/>
@@ -9174,7 +9118,7 @@
       <c r="AH182" s="36"/>
     </row>
     <row r="183" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="199"/>
+      <c r="A183" s="195"/>
       <c r="B183" s="160"/>
       <c r="C183" s="160"/>
       <c r="D183" s="160"/>
@@ -9186,16 +9130,16 @@
       <c r="J183" s="158"/>
       <c r="K183" s="158"/>
       <c r="L183" s="159"/>
-      <c r="M183" s="177"/>
+      <c r="M183" s="173"/>
       <c r="N183" s="23"/>
       <c r="O183" s="23"/>
       <c r="P183" s="23"/>
       <c r="Q183" s="23"/>
       <c r="R183" s="24"/>
-      <c r="S183" s="169"/>
+      <c r="S183" s="165"/>
       <c r="T183" s="23"/>
       <c r="U183" s="24"/>
-      <c r="V183" s="177"/>
+      <c r="V183" s="173"/>
       <c r="W183" s="23"/>
       <c r="X183" s="23"/>
       <c r="Y183" s="23"/>
@@ -9210,15 +9154,15 @@
       <c r="AH183" s="103"/>
     </row>
     <row r="185" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="230" t="s">
-        <v>181</v>
-      </c>
-      <c r="B185" s="218"/>
-      <c r="C185" s="218"/>
-      <c r="D185" s="218"/>
-      <c r="E185" s="218"/>
-      <c r="F185" s="218"/>
-      <c r="G185" s="218"/>
+      <c r="A185" s="199" t="s">
+        <v>178</v>
+      </c>
+      <c r="B185" s="200"/>
+      <c r="C185" s="200"/>
+      <c r="D185" s="200"/>
+      <c r="E185" s="200"/>
+      <c r="F185" s="200"/>
+      <c r="G185" s="200"/>
       <c r="H185" s="9"/>
       <c r="I185" s="9"/>
       <c r="J185" s="9"/>
@@ -9273,7 +9217,7 @@
       <c r="D187" s="23"/>
       <c r="E187" s="23"/>
       <c r="F187" s="30"/>
-      <c r="G187" s="195"/>
+      <c r="G187" s="191"/>
       <c r="H187" s="41"/>
       <c r="I187" s="41"/>
       <c r="J187" s="41"/>
@@ -9288,7 +9232,7 @@
       <c r="S187" s="41"/>
       <c r="T187" s="41"/>
       <c r="U187" s="42"/>
-      <c r="V187" s="195"/>
+      <c r="V187" s="191"/>
       <c r="W187" s="41"/>
       <c r="X187" s="41"/>
       <c r="Y187" s="41"/>
@@ -9347,7 +9291,7 @@
       <c r="AH188" s="36"/>
     </row>
     <row r="189" spans="1:34" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="179"/>
+      <c r="A189" s="175"/>
       <c r="B189" s="23"/>
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
@@ -9358,17 +9302,17 @@
       <c r="I189" s="23"/>
       <c r="J189" s="23"/>
       <c r="K189" s="23"/>
-      <c r="L189" s="179"/>
+      <c r="L189" s="175"/>
       <c r="M189" s="23"/>
       <c r="N189" s="23"/>
       <c r="O189" s="23"/>
       <c r="P189" s="23"/>
       <c r="Q189" s="23"/>
-      <c r="R189" s="169"/>
+      <c r="R189" s="165"/>
       <c r="S189" s="23"/>
       <c r="T189" s="23"/>
       <c r="U189" s="24"/>
-      <c r="V189" s="195"/>
+      <c r="V189" s="191"/>
       <c r="W189" s="41"/>
       <c r="X189" s="41"/>
       <c r="Y189" s="41"/>
@@ -9383,15 +9327,15 @@
       <c r="AH189" s="103"/>
     </row>
     <row r="191" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="230" t="s">
+      <c r="A191" s="199" t="s">
         <v>36</v>
       </c>
-      <c r="B191" s="218"/>
-      <c r="C191" s="218"/>
-      <c r="D191" s="218"/>
-      <c r="E191" s="218"/>
-      <c r="F191" s="218"/>
-      <c r="G191" s="218"/>
+      <c r="B191" s="200"/>
+      <c r="C191" s="200"/>
+      <c r="D191" s="200"/>
+      <c r="E191" s="200"/>
+      <c r="F191" s="200"/>
+      <c r="G191" s="200"/>
       <c r="H191" s="9"/>
       <c r="I191" s="9"/>
       <c r="J191" s="9"/>
@@ -9448,7 +9392,7 @@
       <c r="AH192" s="36"/>
     </row>
     <row r="193" spans="1:34" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="179"/>
+      <c r="A193" s="175"/>
       <c r="B193" s="29"/>
       <c r="C193" s="29"/>
       <c r="D193" s="29"/>
@@ -9465,7 +9409,7 @@
       <c r="O193" s="22"/>
       <c r="P193" s="23"/>
       <c r="Q193" s="23"/>
-      <c r="R193" s="177"/>
+      <c r="R193" s="173"/>
       <c r="S193" s="23"/>
       <c r="T193" s="23"/>
       <c r="U193" s="23"/>
@@ -9475,7 +9419,7 @@
       <c r="Y193" s="23"/>
       <c r="Z193" s="23"/>
       <c r="AA193" s="23"/>
-      <c r="AB193" s="177"/>
+      <c r="AB193" s="173"/>
       <c r="AC193" s="101"/>
       <c r="AD193" s="23"/>
       <c r="AE193" s="23"/>
@@ -9522,7 +9466,7 @@
       <c r="AH194" s="36"/>
     </row>
     <row r="195" spans="1:34" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="180"/>
+      <c r="A195" s="176"/>
       <c r="B195" s="99"/>
       <c r="C195" s="99"/>
       <c r="D195" s="99"/>
@@ -9558,15 +9502,15 @@
       <c r="AH195" s="92"/>
     </row>
     <row r="197" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="230" t="s">
+      <c r="A197" s="199" t="s">
         <v>90</v>
       </c>
-      <c r="B197" s="218"/>
-      <c r="C197" s="218"/>
-      <c r="D197" s="218"/>
-      <c r="E197" s="218"/>
-      <c r="F197" s="218"/>
-      <c r="G197" s="218"/>
+      <c r="B197" s="200"/>
+      <c r="C197" s="200"/>
+      <c r="D197" s="200"/>
+      <c r="E197" s="200"/>
+      <c r="F197" s="200"/>
+      <c r="G197" s="200"/>
       <c r="H197" s="9"/>
       <c r="I197" s="9"/>
       <c r="J197" s="9"/>
@@ -9623,7 +9567,7 @@
       <c r="AH198" s="36"/>
     </row>
     <row r="199" spans="1:34" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="179"/>
+      <c r="A199" s="175"/>
       <c r="B199" s="23"/>
       <c r="C199" s="23"/>
       <c r="D199" s="23"/>
@@ -9640,7 +9584,7 @@
       <c r="O199" s="22"/>
       <c r="P199" s="23"/>
       <c r="Q199" s="23"/>
-      <c r="R199" s="177"/>
+      <c r="R199" s="173"/>
       <c r="S199" s="23"/>
       <c r="T199" s="23"/>
       <c r="U199" s="23"/>
@@ -9650,7 +9594,7 @@
       <c r="Y199" s="23"/>
       <c r="Z199" s="23"/>
       <c r="AA199" s="23"/>
-      <c r="AB199" s="177"/>
+      <c r="AB199" s="173"/>
       <c r="AC199" s="101"/>
       <c r="AD199" s="23"/>
       <c r="AE199" s="23"/>
@@ -9697,7 +9641,7 @@
       <c r="AH200" s="36"/>
     </row>
     <row r="201" spans="1:34" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="180"/>
+      <c r="A201" s="176"/>
       <c r="B201" s="99"/>
       <c r="C201" s="99"/>
       <c r="D201" s="99"/>
@@ -9733,15 +9677,15 @@
       <c r="AH201" s="92"/>
     </row>
     <row r="203" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="230" t="s">
+      <c r="A203" s="199" t="s">
         <v>100</v>
       </c>
-      <c r="B203" s="218"/>
-      <c r="C203" s="218"/>
-      <c r="D203" s="218"/>
-      <c r="E203" s="218"/>
-      <c r="F203" s="218"/>
-      <c r="G203" s="218"/>
+      <c r="B203" s="200"/>
+      <c r="C203" s="200"/>
+      <c r="D203" s="200"/>
+      <c r="E203" s="200"/>
+      <c r="F203" s="200"/>
+      <c r="G203" s="200"/>
       <c r="H203" s="9"/>
       <c r="I203" s="9"/>
       <c r="J203" s="9"/>
@@ -9802,7 +9746,7 @@
       <c r="F205" s="41"/>
       <c r="G205" s="41"/>
       <c r="H205" s="41"/>
-      <c r="I205" s="177"/>
+      <c r="I205" s="173"/>
       <c r="J205" s="23"/>
       <c r="K205" s="23"/>
       <c r="L205" s="23"/>
@@ -9817,7 +9761,7 @@
       <c r="U205" s="41"/>
       <c r="V205" s="41"/>
       <c r="W205" s="41"/>
-      <c r="X205" s="177"/>
+      <c r="X205" s="173"/>
       <c r="Y205" s="23"/>
       <c r="Z205" s="23"/>
       <c r="AA205" s="23"/>
@@ -9874,7 +9818,7 @@
       <c r="AH206" s="36"/>
     </row>
     <row r="207" spans="1:34" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="179"/>
+      <c r="A207" s="175"/>
       <c r="B207" s="23"/>
       <c r="C207" s="23"/>
       <c r="D207" s="23"/>
@@ -9882,7 +9826,7 @@
       <c r="F207" s="23"/>
       <c r="G207" s="23"/>
       <c r="H207" s="23"/>
-      <c r="I207" s="179"/>
+      <c r="I207" s="175"/>
       <c r="J207" s="23"/>
       <c r="K207" s="23"/>
       <c r="L207" s="23"/>
@@ -9897,9 +9841,9 @@
       <c r="U207" s="23"/>
       <c r="V207" s="23"/>
       <c r="W207" s="23"/>
-      <c r="X207" s="169"/>
+      <c r="X207" s="165"/>
       <c r="Y207" s="101"/>
-      <c r="Z207" s="177"/>
+      <c r="Z207" s="173"/>
       <c r="AA207" s="23"/>
       <c r="AB207" s="23"/>
       <c r="AC207" s="23"/>
@@ -9948,7 +9892,7 @@
       <c r="AH208" s="36"/>
     </row>
     <row r="209" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="180"/>
+      <c r="A209" s="176"/>
       <c r="B209" s="99"/>
       <c r="C209" s="99"/>
       <c r="D209" s="99"/>
@@ -9984,15 +9928,15 @@
       <c r="AH209" s="92"/>
     </row>
     <row r="211" spans="1:34" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="227" t="s">
+      <c r="A211" s="201" t="s">
         <v>98</v>
       </c>
-      <c r="B211" s="218"/>
-      <c r="C211" s="218"/>
-      <c r="D211" s="218"/>
-      <c r="E211" s="218"/>
-      <c r="F211" s="218"/>
-      <c r="G211" s="218"/>
+      <c r="B211" s="200"/>
+      <c r="C211" s="200"/>
+      <c r="D211" s="200"/>
+      <c r="E211" s="200"/>
+      <c r="F211" s="200"/>
+      <c r="G211" s="200"/>
       <c r="H211" s="3"/>
       <c r="I211" s="9"/>
       <c r="J211" s="9"/>
@@ -10040,7 +9984,7 @@
       <c r="AH212" s="36"/>
     </row>
     <row r="213" spans="1:34" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="200"/>
+      <c r="A213" s="196"/>
       <c r="B213" s="41"/>
       <c r="C213" s="41"/>
       <c r="D213" s="41"/>
@@ -10058,7 +10002,7 @@
       <c r="P213" s="101"/>
       <c r="Q213" s="94"/>
       <c r="R213" s="94"/>
-      <c r="S213" s="177"/>
+      <c r="S213" s="173"/>
       <c r="T213" s="101"/>
       <c r="U213" s="23"/>
       <c r="V213" s="23"/>
@@ -10156,7 +10100,7 @@
       <c r="Z215" s="72"/>
       <c r="AA215" s="72"/>
       <c r="AB215" s="73"/>
-      <c r="AC215" s="195"/>
+      <c r="AC215" s="191"/>
       <c r="AD215" s="69"/>
       <c r="AE215" s="69"/>
       <c r="AF215" s="69"/>
@@ -10202,7 +10146,7 @@
       <c r="AH216" s="36"/>
     </row>
     <row r="217" spans="1:34" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="180"/>
+      <c r="A217" s="176"/>
       <c r="B217" s="99"/>
       <c r="C217" s="99"/>
       <c r="D217" s="99"/>
@@ -10240,6 +10184,38 @@
     <row r="218" spans="1:34" ht="32.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="E162:H162"/>
+    <mergeCell ref="I162:L162"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="X160:AD160"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="S140:V140"/>
+    <mergeCell ref="A149:I149"/>
+    <mergeCell ref="W140:Z140"/>
+    <mergeCell ref="A157:G157"/>
+    <mergeCell ref="P70:AH70"/>
+    <mergeCell ref="W50:AH50"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="A74:H74"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="A123:G123"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="A97:G97"/>
+    <mergeCell ref="A107:G107"/>
     <mergeCell ref="A167:G167"/>
     <mergeCell ref="A197:G197"/>
     <mergeCell ref="A203:G203"/>
@@ -10248,45 +10224,14 @@
     <mergeCell ref="A179:G179"/>
     <mergeCell ref="A185:G185"/>
     <mergeCell ref="A191:G191"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="A123:G123"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="A97:G97"/>
-    <mergeCell ref="A107:G107"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="P70:AH70"/>
-    <mergeCell ref="W50:AH50"/>
-    <mergeCell ref="A66:G66"/>
-    <mergeCell ref="A74:H74"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="X160:AD160"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="S140:V140"/>
-    <mergeCell ref="A149:I149"/>
-    <mergeCell ref="W140:Z140"/>
-    <mergeCell ref="A157:G157"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="E162:H162"/>
-    <mergeCell ref="I162:L162"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="B44:D44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="W34" r:id="rId1"/>
+    <hyperlink ref="W32" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="7" manualBreakCount="7">
     <brk id="36" max="33" man="1"/>
@@ -10297,13 +10242,13 @@
     <brk id="165" max="33" man="1"/>
     <brk id="183" max="16383" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="MSPhotoEd.3" shapeId="1031" r:id="rId5">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
+        <oleObject progId="MSPhotoEd.3" shapeId="1031" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
@@ -10322,7 +10267,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="MSPhotoEd.3" shapeId="1031" r:id="rId5"/>
+        <oleObject progId="MSPhotoEd.3" shapeId="1031" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
